--- a/2023年软件学院学术科技部/黑框框程序设计大赛/黑框框报名统计.xlsx
+++ b/2023年软件学院学术科技部/黑框框程序设计大赛/黑框框报名统计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="307">
   <si>
     <t>黑框框报名表</t>
   </si>
@@ -327,7 +327,166 @@
     <t>202330551071</t>
   </si>
   <si>
-    <t>ZA.Y.X</t>
+    <t>你就说对不队</t>
+  </si>
+  <si>
+    <t>梁鑫</t>
+  </si>
+  <si>
+    <t>202330550871</t>
+  </si>
+  <si>
+    <t>能和我写一辈子游戏吗</t>
+  </si>
+  <si>
+    <t>邹丰蔚</t>
+  </si>
+  <si>
+    <t>202330552391</t>
+  </si>
+  <si>
+    <t>肘击黑框框队</t>
+  </si>
+  <si>
+    <t>王梓桦</t>
+  </si>
+  <si>
+    <t>202330551631</t>
+  </si>
+  <si>
+    <t>不许动</t>
+  </si>
+  <si>
+    <t>王烁云</t>
+  </si>
+  <si>
+    <t>202330552841</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>黄延禛</t>
+  </si>
+  <si>
+    <t>202330552602</t>
+  </si>
+  <si>
+    <t>单人成行队</t>
+  </si>
+  <si>
+    <t>朱宇虹</t>
+  </si>
+  <si>
+    <t>202330552342</t>
+  </si>
+  <si>
+    <t>Ringo</t>
+  </si>
+  <si>
+    <t>林静远</t>
+  </si>
+  <si>
+    <t>202330550912</t>
+  </si>
+  <si>
+    <t>勇敢牛牛队</t>
+  </si>
+  <si>
+    <t>宋韩滨</t>
+  </si>
+  <si>
+    <t>202330551321</t>
+  </si>
+  <si>
+    <t>建议对mac用户好一点</t>
+  </si>
+  <si>
+    <t>张辉洲</t>
+  </si>
+  <si>
+    <t>202330552101</t>
+  </si>
+  <si>
+    <t>苏荣业</t>
+  </si>
+  <si>
+    <t>202330551341</t>
+  </si>
+  <si>
+    <t>摆烂组</t>
+  </si>
+  <si>
+    <t>石鑫月</t>
+  </si>
+  <si>
+    <t>202330552782</t>
+  </si>
+  <si>
+    <t>飞创队</t>
+  </si>
+  <si>
+    <t>蔡健浩</t>
+  </si>
+  <si>
+    <t>202330550061</t>
+  </si>
+  <si>
+    <t>菜鸡学编程</t>
+  </si>
+  <si>
+    <t>刘梓斌</t>
+  </si>
+  <si>
+    <t>202330551111</t>
+  </si>
+  <si>
+    <t>统一军司令部</t>
+  </si>
+  <si>
+    <t>王腾岳</t>
+  </si>
+  <si>
+    <t>202330551531</t>
+  </si>
+  <si>
+    <t>蔷薇花下微笑</t>
+  </si>
+  <si>
+    <t>陈琼熙</t>
+  </si>
+  <si>
+    <t>202330552481</t>
+  </si>
+  <si>
+    <t>雨过天晴队</t>
+  </si>
+  <si>
+    <t>罗宇豪</t>
+  </si>
+  <si>
+    <t>202330551181</t>
+  </si>
+  <si>
+    <t>今天</t>
+  </si>
+  <si>
+    <t>赖昱韬</t>
+  </si>
+  <si>
+    <t>202230140178</t>
+  </si>
+  <si>
+    <t>一片空白</t>
+  </si>
+  <si>
+    <t>陈可翊</t>
+  </si>
+  <si>
+    <t>202330550111</t>
+  </si>
+  <si>
+    <t>ZA熙</t>
   </si>
   <si>
     <t>喻熙</t>
@@ -336,168 +495,6 @@
     <t>202330552941</t>
   </si>
   <si>
-    <t>你就说对不队</t>
-  </si>
-  <si>
-    <t>梁鑫</t>
-  </si>
-  <si>
-    <t>202330550871</t>
-  </si>
-  <si>
-    <t>能和我写一辈子游戏吗</t>
-  </si>
-  <si>
-    <t>邹丰蔚</t>
-  </si>
-  <si>
-    <t>202330552391</t>
-  </si>
-  <si>
-    <t>肘击黑框框队</t>
-  </si>
-  <si>
-    <t>王梓桦</t>
-  </si>
-  <si>
-    <t>202330551631</t>
-  </si>
-  <si>
-    <t>不许动</t>
-  </si>
-  <si>
-    <t>王烁云</t>
-  </si>
-  <si>
-    <t>202330552841</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>黄延禛</t>
-  </si>
-  <si>
-    <t>202330552602</t>
-  </si>
-  <si>
-    <t>单人成行队</t>
-  </si>
-  <si>
-    <t>朱宇虹</t>
-  </si>
-  <si>
-    <t>202330552342</t>
-  </si>
-  <si>
-    <t>Ringo</t>
-  </si>
-  <si>
-    <t>林静远</t>
-  </si>
-  <si>
-    <t>202330550912</t>
-  </si>
-  <si>
-    <t>勇敢牛牛队</t>
-  </si>
-  <si>
-    <t>宋韩滨</t>
-  </si>
-  <si>
-    <t>202330551321</t>
-  </si>
-  <si>
-    <t>建议对mac用户好一点</t>
-  </si>
-  <si>
-    <t>张辉洲</t>
-  </si>
-  <si>
-    <t>202330552101</t>
-  </si>
-  <si>
-    <t>苏荣业</t>
-  </si>
-  <si>
-    <t>202330551341</t>
-  </si>
-  <si>
-    <t>摆烂组</t>
-  </si>
-  <si>
-    <t>石鑫月</t>
-  </si>
-  <si>
-    <t>202330552782</t>
-  </si>
-  <si>
-    <t>飞创队</t>
-  </si>
-  <si>
-    <t>蔡健浩</t>
-  </si>
-  <si>
-    <t>202330550061</t>
-  </si>
-  <si>
-    <t>菜鸡学编程</t>
-  </si>
-  <si>
-    <t>刘梓斌</t>
-  </si>
-  <si>
-    <t>202330551111</t>
-  </si>
-  <si>
-    <t>统一军司令部</t>
-  </si>
-  <si>
-    <t>王腾岳</t>
-  </si>
-  <si>
-    <t>202330551531</t>
-  </si>
-  <si>
-    <t>蔷薇花下微笑</t>
-  </si>
-  <si>
-    <t>陈琼熙</t>
-  </si>
-  <si>
-    <t>202330552481</t>
-  </si>
-  <si>
-    <t>雨过天晴队</t>
-  </si>
-  <si>
-    <t>罗宇豪</t>
-  </si>
-  <si>
-    <t>202330551181</t>
-  </si>
-  <si>
-    <t>今天</t>
-  </si>
-  <si>
-    <t>赖昱韬</t>
-  </si>
-  <si>
-    <t>202230140178</t>
-  </si>
-  <si>
-    <t>一片空白</t>
-  </si>
-  <si>
-    <t>陈可翊</t>
-  </si>
-  <si>
-    <t>202330550111</t>
-  </si>
-  <si>
-    <t>ZA熙</t>
-  </si>
-  <si>
     <t>复活牢大队</t>
   </si>
   <si>
@@ -882,52 +879,49 @@
     <t>202330552761</t>
   </si>
   <si>
-    <t>顺便看看</t>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>周轩瑜</t>
+  </si>
+  <si>
+    <t>202330335261</t>
+  </si>
+  <si>
+    <t>jL</t>
+  </si>
+  <si>
+    <t>吕齐明</t>
+  </si>
+  <si>
+    <t>202330551151</t>
+  </si>
+  <si>
+    <t>一码当先队</t>
+  </si>
+  <si>
+    <t>鲁金梓</t>
+  </si>
+  <si>
+    <t>202330332051</t>
+  </si>
+  <si>
+    <t>Sarah同学</t>
+  </si>
+  <si>
+    <t>李昕凌</t>
+  </si>
+  <si>
+    <t>202330420912</t>
+  </si>
+  <si>
+    <t>随便看看队</t>
   </si>
   <si>
     <t>邓肯</t>
   </si>
   <si>
     <t>202330552521</t>
-  </si>
-  <si>
-    <t>Unicorn</t>
-  </si>
-  <si>
-    <t>周轩瑜</t>
-  </si>
-  <si>
-    <t>202330335261</t>
-  </si>
-  <si>
-    <t>jL</t>
-  </si>
-  <si>
-    <t>吕齐明</t>
-  </si>
-  <si>
-    <t>202330551151</t>
-  </si>
-  <si>
-    <t>一码当先队</t>
-  </si>
-  <si>
-    <t>鲁金梓</t>
-  </si>
-  <si>
-    <t>202330332051</t>
-  </si>
-  <si>
-    <t>Sarah同学</t>
-  </si>
-  <si>
-    <t>李昕凌</t>
-  </si>
-  <si>
-    <t>202330420912</t>
-  </si>
-  <si>
-    <t>随便看看队</t>
   </si>
   <si>
     <t>乱步桑在此</t>
@@ -2000,10 +1994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A69" sqref="$A69:$XFD69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2594,7 +2588,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>102</v>
@@ -2614,7 +2608,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>105</v>
@@ -2634,7 +2628,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>108</v>
@@ -2654,7 +2648,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>111</v>
@@ -2674,7 +2668,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>114</v>
@@ -2694,7 +2688,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>117</v>
@@ -2714,7 +2708,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>120</v>
@@ -2734,7 +2728,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>123</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>126</v>
@@ -2774,16 +2768,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>130</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>13</v>
@@ -2794,10 +2788,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>132</v>
@@ -2814,7 +2808,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>134</v>
@@ -2832,9 +2826,9 @@
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:5">
       <c r="A41" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>137</v>
@@ -2848,13 +2842,10 @@
       <c r="E41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>140</v>
@@ -2871,7 +2862,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>143</v>
@@ -2888,7 +2879,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>146</v>
@@ -2905,7 +2896,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>149</v>
@@ -2922,7 +2913,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>152</v>
@@ -2939,7 +2930,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>155</v>
@@ -2956,404 +2947,407 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:8">
       <c r="A49" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>13</v>
+      <c r="C49" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>165</v>
-      </c>
       <c r="F50" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>165</v>
+        <v>176</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>165</v>
+        <v>180</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>165</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D58" s="9" t="s">
         <v>198</v>
       </c>
+      <c r="C58" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="E58" s="9" t="s">
-        <v>165</v>
+        <v>201</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>204</v>
+      <c r="F59" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>223</v>
+        <v>225</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>225</v>
+        <v>201</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>202</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -3361,19 +3355,19 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -3381,19 +3375,19 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -3401,19 +3395,19 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="3">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -3421,19 +3415,19 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -3441,19 +3435,19 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -3461,119 +3455,119 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:5">
       <c r="A72" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
+        <v>201</v>
+      </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>202</v>
+        <v>219</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>220</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -3581,117 +3575,117 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D77" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="C77" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" ht="16" customHeight="1" spans="1:8">
       <c r="A78" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="G78" s="11" t="s">
         <v>276</v>
       </c>
+      <c r="C78" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>280</v>
+      </c>
       <c r="H78" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" ht="16" customHeight="1" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="3">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F80" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>178</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="3">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -3699,19 +3693,19 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="3">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -3719,19 +3713,19 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="3">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -3739,19 +3733,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="3">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -3759,19 +3753,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -3779,63 +3773,23 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="3">
-        <v>88</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="3">
-        <v>89</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
     </row>
   </sheetData>
   <sortState ref="A3:H91">
